--- a/igs/StructureDefinition-cdl-is-emergency.xlsx
+++ b/igs/StructureDefinition-cdl-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T17:31:16+00:00</t>
+    <t>2023-01-08T19:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
